--- a/xlsx/AK700换扇重制版.xlsx
+++ b/xlsx/AK700换扇重制版.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skycheng/Desktop/FanWebsite/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FDD5D2-9330-6E4B-A1A7-5F929A246D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBE4BF0-BE51-984F-97C0-C0BAA0377681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="18040" xr2:uid="{0674E527-E1AB-E348-9FF3-CA6262F7D631}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>莫比乌斯</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,6 +78,30 @@
   </si>
   <si>
     <t>A120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9RA12025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GT3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广镰GT3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F9 R120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MACH120</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,15 +469,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25302E3-D780-C043-8AFB-452B651797D6}">
-  <dimension ref="A1:AG4"/>
+  <dimension ref="A1:BK4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AG4" sqref="AG4"/>
+    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
+      <selection activeCell="AZ1" sqref="AZ1:BK1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:63">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -509,8 +533,50 @@
       </c>
       <c r="AF1" s="1"/>
       <c r="AG1" s="1"/>
+      <c r="AH1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU1" s="1"/>
+      <c r="AV1" s="1"/>
+      <c r="AW1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AX1" s="1"/>
+      <c r="AY1" s="1"/>
+      <c r="AZ1" s="1"/>
+      <c r="BA1" s="1"/>
+      <c r="BB1" s="1"/>
+      <c r="BC1" s="1"/>
+      <c r="BD1" s="1"/>
+      <c r="BE1" s="1"/>
+      <c r="BF1" s="1"/>
+      <c r="BG1" s="1"/>
+      <c r="BH1" s="1"/>
+      <c r="BI1" s="1"/>
+      <c r="BJ1" s="1"/>
+      <c r="BK1" s="1"/>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:63">
       <c r="A2">
         <v>44.3</v>
       </c>
@@ -621,8 +687,68 @@
       <c r="AG2">
         <v>2553</v>
       </c>
+      <c r="AH2">
+        <v>57.2</v>
+      </c>
+      <c r="AI2">
+        <f>76-23.6</f>
+        <v>52.4</v>
+      </c>
+      <c r="AJ2">
+        <v>4040</v>
+      </c>
+      <c r="AK2">
+        <v>51.2</v>
+      </c>
+      <c r="AL2">
+        <f>77.3-23.5</f>
+        <v>53.8</v>
+      </c>
+      <c r="AM2">
+        <v>3002</v>
+      </c>
+      <c r="AN2">
+        <v>51.7</v>
+      </c>
+      <c r="AO2">
+        <f>77.4-23.5</f>
+        <v>53.900000000000006</v>
+      </c>
+      <c r="AP2">
+        <v>3011</v>
+      </c>
+      <c r="AQ2">
+        <v>58</v>
+      </c>
+      <c r="AR2">
+        <f>76.2-23.5</f>
+        <v>52.7</v>
+      </c>
+      <c r="AS2">
+        <v>3000</v>
+      </c>
+      <c r="AT2">
+        <v>54.2</v>
+      </c>
+      <c r="AU2">
+        <f>76.4-23.5</f>
+        <v>52.900000000000006</v>
+      </c>
+      <c r="AV2">
+        <v>3030</v>
+      </c>
+      <c r="AW2">
+        <v>54.5</v>
+      </c>
+      <c r="AX2">
+        <f>76.5-23.5</f>
+        <v>53</v>
+      </c>
+      <c r="AY2">
+        <v>3053</v>
+      </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:63">
       <c r="A3">
         <v>40</v>
       </c>
@@ -733,8 +859,68 @@
       <c r="AG3">
         <v>1840</v>
       </c>
+      <c r="AH3">
+        <v>50</v>
+      </c>
+      <c r="AI3">
+        <f>77.1-23.6</f>
+        <v>53.499999999999993</v>
+      </c>
+      <c r="AJ3">
+        <v>3037</v>
+      </c>
+      <c r="AK3">
+        <v>40.9</v>
+      </c>
+      <c r="AL3">
+        <f>81-23.5</f>
+        <v>57.5</v>
+      </c>
+      <c r="AM3">
+        <v>1775</v>
+      </c>
+      <c r="AN3">
+        <v>40</v>
+      </c>
+      <c r="AO3">
+        <f>80.7-23.5</f>
+        <v>57.2</v>
+      </c>
+      <c r="AP3">
+        <v>1810</v>
+      </c>
+      <c r="AQ3">
+        <v>50</v>
+      </c>
+      <c r="AR3">
+        <f>77.8-23.5</f>
+        <v>54.3</v>
+      </c>
+      <c r="AS3">
+        <v>2245</v>
+      </c>
+      <c r="AT3">
+        <v>50</v>
+      </c>
+      <c r="AU3">
+        <f>77.2-23.5</f>
+        <v>53.7</v>
+      </c>
+      <c r="AV3">
+        <v>2583</v>
+      </c>
+      <c r="AW3">
+        <v>49.9</v>
+      </c>
+      <c r="AX3">
+        <f>77.5-23.4</f>
+        <v>54.1</v>
+      </c>
+      <c r="AY3">
+        <v>2542</v>
+      </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:63">
       <c r="M4">
         <v>40</v>
       </c>
@@ -745,10 +931,60 @@
       <c r="O4">
         <v>1762</v>
       </c>
+      <c r="AH4">
+        <v>40</v>
+      </c>
+      <c r="AI4">
+        <f>79.9-23.5</f>
+        <v>56.400000000000006</v>
+      </c>
+      <c r="AJ4">
+        <v>2040</v>
+      </c>
+      <c r="AQ4">
+        <v>39.9</v>
+      </c>
+      <c r="AR4">
+        <f>81-23.5</f>
+        <v>57.5</v>
+      </c>
+      <c r="AS4">
+        <v>1459</v>
+      </c>
+      <c r="AT4">
+        <v>40.1</v>
+      </c>
+      <c r="AU4">
+        <f>80.3-23.5</f>
+        <v>56.8</v>
+      </c>
+      <c r="AV4">
+        <v>1711</v>
+      </c>
+      <c r="AW4">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="AX4">
+        <f>80.2-23.4</f>
+        <v>56.800000000000004</v>
+      </c>
+      <c r="AY4">
+        <v>1730</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="21">
+    <mergeCell ref="BI1:BK1"/>
+    <mergeCell ref="AT1:AV1"/>
+    <mergeCell ref="AW1:AY1"/>
+    <mergeCell ref="AZ1:BB1"/>
+    <mergeCell ref="BC1:BE1"/>
+    <mergeCell ref="BF1:BH1"/>
     <mergeCell ref="AE1:AG1"/>
+    <mergeCell ref="AH1:AJ1"/>
+    <mergeCell ref="AK1:AM1"/>
+    <mergeCell ref="AN1:AP1"/>
+    <mergeCell ref="AQ1:AS1"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="V1:X1"/>

--- a/xlsx/AK700换扇重制版.xlsx
+++ b/xlsx/AK700换扇重制版.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skycheng/Desktop/FanWebsite/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBE4BF0-BE51-984F-97C0-C0BAA0377681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0198DD97-6E67-314B-B945-5323E745AA73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="18040" xr2:uid="{0674E527-E1AB-E348-9FF3-CA6262F7D631}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>莫比乌斯</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,6 +102,22 @@
   </si>
   <si>
     <t>MACH120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LP12E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P12E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风尊T30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -471,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25302E3-D780-C043-8AFB-452B651797D6}">
   <dimension ref="A1:BK4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
-      <selection activeCell="AZ1" sqref="AZ1:BK1"/>
+    <sheetView tabSelected="1" topLeftCell="AX1" workbookViewId="0">
+      <selection activeCell="BJ4" sqref="BJ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -563,16 +579,24 @@
       </c>
       <c r="AX1" s="1"/>
       <c r="AY1" s="1"/>
-      <c r="AZ1" s="1"/>
+      <c r="AZ1" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
-      <c r="BC1" s="1"/>
+      <c r="BC1" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="BD1" s="1"/>
       <c r="BE1" s="1"/>
-      <c r="BF1" s="1"/>
+      <c r="BF1" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="BG1" s="1"/>
       <c r="BH1" s="1"/>
-      <c r="BI1" s="1"/>
+      <c r="BI1" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
     </row>
@@ -747,6 +771,46 @@
       <c r="AY2">
         <v>3053</v>
       </c>
+      <c r="AZ2">
+        <v>55.2</v>
+      </c>
+      <c r="BA2">
+        <f>76.5-23.4</f>
+        <v>53.1</v>
+      </c>
+      <c r="BB2">
+        <v>3015</v>
+      </c>
+      <c r="BC2">
+        <v>52.4</v>
+      </c>
+      <c r="BD2">
+        <f>76.9-23.4</f>
+        <v>53.500000000000007</v>
+      </c>
+      <c r="BE2">
+        <v>2800</v>
+      </c>
+      <c r="BF2">
+        <v>49.6</v>
+      </c>
+      <c r="BG2">
+        <f>77.5-23.3</f>
+        <v>54.2</v>
+      </c>
+      <c r="BH2">
+        <v>2516</v>
+      </c>
+      <c r="BI2">
+        <v>49</v>
+      </c>
+      <c r="BJ2">
+        <f>77.1-22.9</f>
+        <v>54.199999999999996</v>
+      </c>
+      <c r="BK2">
+        <v>2589</v>
+      </c>
     </row>
     <row r="3" spans="1:63">
       <c r="A3">
@@ -918,6 +982,46 @@
       </c>
       <c r="AY3">
         <v>2542</v>
+      </c>
+      <c r="AZ3">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="BA3">
+        <f>80.5-23.4</f>
+        <v>57.1</v>
+      </c>
+      <c r="BB3">
+        <v>1697</v>
+      </c>
+      <c r="BC3">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="BD3">
+        <f>80.1-23.4</f>
+        <v>56.699999999999996</v>
+      </c>
+      <c r="BE3">
+        <v>1729</v>
+      </c>
+      <c r="BF3">
+        <v>40.1</v>
+      </c>
+      <c r="BG3">
+        <f>80.2-23.4</f>
+        <v>56.800000000000004</v>
+      </c>
+      <c r="BH3">
+        <v>1721</v>
+      </c>
+      <c r="BI3">
+        <v>40</v>
+      </c>
+      <c r="BJ3">
+        <f>79.6-22.9</f>
+        <v>56.699999999999996</v>
+      </c>
+      <c r="BK3">
+        <v>1812</v>
       </c>
     </row>
     <row r="4" spans="1:63">

--- a/xlsx/AK700换扇重制版.xlsx
+++ b/xlsx/AK700换扇重制版.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skycheng/Desktop/FanWebsite/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0198DD97-6E67-314B-B945-5323E745AA73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA1FCD8-9ACB-1B4D-A4FE-DE956B8DFDB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="18040" xr2:uid="{0674E527-E1AB-E348-9FF3-CA6262F7D631}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>莫比乌斯</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,7 +117,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>P12Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>风尊T30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -485,15 +493,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25302E3-D780-C043-8AFB-452B651797D6}">
-  <dimension ref="A1:BK4"/>
+  <dimension ref="A1:BQ4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AX1" workbookViewId="0">
-      <selection activeCell="BJ4" sqref="BJ4"/>
+    <sheetView tabSelected="1" topLeftCell="BH1" workbookViewId="0">
+      <selection activeCell="BQ3" sqref="BQ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:63">
+    <row r="1" spans="1:69">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -590,7 +598,7 @@
       <c r="BD1" s="1"/>
       <c r="BE1" s="1"/>
       <c r="BF1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BG1" s="1"/>
       <c r="BH1" s="1"/>
@@ -599,8 +607,18 @@
       </c>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
+      <c r="BL1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="BM1" s="1"/>
+      <c r="BN1" s="1"/>
+      <c r="BO1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BP1" s="1"/>
+      <c r="BQ1" s="1"/>
     </row>
-    <row r="2" spans="1:63">
+    <row r="2" spans="1:69">
       <c r="A2">
         <v>44.3</v>
       </c>
@@ -811,8 +829,28 @@
       <c r="BK2">
         <v>2589</v>
       </c>
+      <c r="BL2">
+        <v>49.8</v>
+      </c>
+      <c r="BM2">
+        <f>77-23.1</f>
+        <v>53.9</v>
+      </c>
+      <c r="BN2">
+        <v>3042</v>
+      </c>
+      <c r="BO2">
+        <v>46.3</v>
+      </c>
+      <c r="BP2">
+        <f>77.9-23.1</f>
+        <v>54.800000000000004</v>
+      </c>
+      <c r="BQ2">
+        <v>2000</v>
+      </c>
     </row>
-    <row r="3" spans="1:63">
+    <row r="3" spans="1:69">
       <c r="A3">
         <v>40</v>
       </c>
@@ -1017,14 +1055,34 @@
         <v>40</v>
       </c>
       <c r="BJ3">
-        <f>79.6-22.9</f>
-        <v>56.699999999999996</v>
+        <f>79.7-22.9</f>
+        <v>56.800000000000004</v>
       </c>
       <c r="BK3">
         <v>1812</v>
       </c>
+      <c r="BL3">
+        <v>40</v>
+      </c>
+      <c r="BM3">
+        <f>79.9-23.1</f>
+        <v>56.800000000000004</v>
+      </c>
+      <c r="BN3">
+        <v>2030</v>
+      </c>
+      <c r="BO3">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="BP3">
+        <f>80-23.2</f>
+        <v>56.8</v>
+      </c>
+      <c r="BQ3">
+        <v>1551</v>
+      </c>
     </row>
-    <row r="4" spans="1:63">
+    <row r="4" spans="1:69">
       <c r="M4">
         <v>40</v>
       </c>
@@ -1077,8 +1135,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="23">
     <mergeCell ref="BI1:BK1"/>
+    <mergeCell ref="BL1:BN1"/>
+    <mergeCell ref="BO1:BQ1"/>
     <mergeCell ref="AT1:AV1"/>
     <mergeCell ref="AW1:AY1"/>
     <mergeCell ref="AZ1:BB1"/>

--- a/xlsx/AK700换扇重制版.xlsx
+++ b/xlsx/AK700换扇重制版.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skycheng/Desktop/FanWebsite/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA1FCD8-9ACB-1B4D-A4FE-DE956B8DFDB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7713A521-D898-2E40-A731-E63D8A53A150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="18040" xr2:uid="{0674E527-E1AB-E348-9FF3-CA6262F7D631}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>莫比乌斯</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,6 +126,10 @@
   </si>
   <si>
     <t>SC12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F3 S120</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -493,15 +497,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25302E3-D780-C043-8AFB-452B651797D6}">
-  <dimension ref="A1:BQ4"/>
+  <dimension ref="A1:BT4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="BH1" workbookViewId="0">
-      <selection activeCell="BQ3" sqref="BQ3"/>
+      <selection activeCell="BS3" sqref="BS3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:69">
+    <row r="1" spans="1:72">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -617,8 +621,13 @@
       </c>
       <c r="BP1" s="1"/>
       <c r="BQ1" s="1"/>
+      <c r="BR1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="BS1" s="1"/>
+      <c r="BT1" s="1"/>
     </row>
-    <row r="2" spans="1:69">
+    <row r="2" spans="1:72">
       <c r="A2">
         <v>44.3</v>
       </c>
@@ -849,8 +858,18 @@
       <c r="BQ2">
         <v>2000</v>
       </c>
+      <c r="BR2">
+        <v>49.7</v>
+      </c>
+      <c r="BS2">
+        <f>77.3-23.2</f>
+        <v>54.099999999999994</v>
+      </c>
+      <c r="BT2">
+        <v>2696</v>
+      </c>
     </row>
-    <row r="3" spans="1:69">
+    <row r="3" spans="1:72">
       <c r="A3">
         <v>40</v>
       </c>
@@ -1081,8 +1100,18 @@
       <c r="BQ3">
         <v>1551</v>
       </c>
+      <c r="BR3">
+        <v>40</v>
+      </c>
+      <c r="BS3">
+        <f>80.4-23.3</f>
+        <v>57.100000000000009</v>
+      </c>
+      <c r="BT3">
+        <v>1820</v>
+      </c>
     </row>
-    <row r="4" spans="1:69">
+    <row r="4" spans="1:72">
       <c r="M4">
         <v>40</v>
       </c>
@@ -1135,10 +1164,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="24">
     <mergeCell ref="BI1:BK1"/>
     <mergeCell ref="BL1:BN1"/>
     <mergeCell ref="BO1:BQ1"/>
+    <mergeCell ref="BR1:BT1"/>
     <mergeCell ref="AT1:AV1"/>
     <mergeCell ref="AW1:AY1"/>
     <mergeCell ref="AZ1:BB1"/>

--- a/xlsx/AK700换扇重制版.xlsx
+++ b/xlsx/AK700换扇重制版.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skycheng/Desktop/FanWebsite/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7713A521-D898-2E40-A731-E63D8A53A150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407463CD-5DAB-6644-830A-DD6C5EE7A2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="18040" xr2:uid="{0674E527-E1AB-E348-9FF3-CA6262F7D631}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>莫比乌斯</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,6 +130,46 @@
   </si>
   <si>
     <t>F3 S120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H12PE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HF3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxFlow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AK12B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FT12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DN120Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雅浚12030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>振华巨风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F7 X120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄冥静V2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -497,15 +537,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25302E3-D780-C043-8AFB-452B651797D6}">
-  <dimension ref="A1:BT4"/>
+  <dimension ref="A1:CX4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BH1" workbookViewId="0">
-      <selection activeCell="BS3" sqref="BS3"/>
+    <sheetView tabSelected="1" topLeftCell="CM1" workbookViewId="0">
+      <selection activeCell="CY8" sqref="CY8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:72">
+    <row r="1" spans="1:102">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -626,8 +666,58 @@
       </c>
       <c r="BS1" s="1"/>
       <c r="BT1" s="1"/>
+      <c r="BU1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BV1" s="1"/>
+      <c r="BW1" s="1"/>
+      <c r="BX1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="BY1" s="1"/>
+      <c r="BZ1" s="1"/>
+      <c r="CA1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="CB1" s="1"/>
+      <c r="CC1" s="1"/>
+      <c r="CD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="CE1" s="1"/>
+      <c r="CF1" s="1"/>
+      <c r="CG1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="CH1" s="1"/>
+      <c r="CI1" s="1"/>
+      <c r="CJ1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="CK1" s="1"/>
+      <c r="CL1" s="1"/>
+      <c r="CM1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="CN1" s="1"/>
+      <c r="CO1" s="1"/>
+      <c r="CP1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="CQ1" s="1"/>
+      <c r="CR1" s="1"/>
+      <c r="CS1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="CT1" s="1"/>
+      <c r="CU1" s="1"/>
+      <c r="CV1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="CW1" s="1"/>
+      <c r="CX1" s="1"/>
     </row>
-    <row r="2" spans="1:72">
+    <row r="2" spans="1:102">
       <c r="A2">
         <v>44.3</v>
       </c>
@@ -868,8 +958,108 @@
       <c r="BT2">
         <v>2696</v>
       </c>
+      <c r="BU2">
+        <v>57</v>
+      </c>
+      <c r="BV2">
+        <f>75.9-22.9</f>
+        <v>53.000000000000007</v>
+      </c>
+      <c r="BW2">
+        <v>3300</v>
+      </c>
+      <c r="BX2">
+        <v>61.6</v>
+      </c>
+      <c r="BY2">
+        <f>75-23.1</f>
+        <v>51.9</v>
+      </c>
+      <c r="BZ2">
+        <v>4008</v>
+      </c>
+      <c r="CA2">
+        <v>44</v>
+      </c>
+      <c r="CB2">
+        <f>76.7-21.9</f>
+        <v>54.800000000000004</v>
+      </c>
+      <c r="CC2">
+        <v>2378</v>
+      </c>
+      <c r="CD2">
+        <v>47.4</v>
+      </c>
+      <c r="CE2">
+        <f>77.2-22.4</f>
+        <v>54.800000000000004</v>
+      </c>
+      <c r="CF2">
+        <v>2156</v>
+      </c>
+      <c r="CG2">
+        <v>43</v>
+      </c>
+      <c r="CH2">
+        <f>78.3-22.5</f>
+        <v>55.8</v>
+      </c>
+      <c r="CI2">
+        <v>2243</v>
+      </c>
+      <c r="CJ2">
+        <v>59</v>
+      </c>
+      <c r="CK2">
+        <f>75.1-22.5</f>
+        <v>52.599999999999994</v>
+      </c>
+      <c r="CL2">
+        <v>3096</v>
+      </c>
+      <c r="CM2">
+        <v>53.2</v>
+      </c>
+      <c r="CN2">
+        <f>76.3-22.5</f>
+        <v>53.8</v>
+      </c>
+      <c r="CO2">
+        <v>2986</v>
+      </c>
+      <c r="CP2">
+        <v>50.9</v>
+      </c>
+      <c r="CQ2">
+        <f>76.4-22.5</f>
+        <v>53.900000000000006</v>
+      </c>
+      <c r="CR2">
+        <v>3030</v>
+      </c>
+      <c r="CS2">
+        <v>50</v>
+      </c>
+      <c r="CT2">
+        <f>76.7-22.5</f>
+        <v>54.2</v>
+      </c>
+      <c r="CU2">
+        <v>3120</v>
+      </c>
+      <c r="CV2">
+        <v>60.9</v>
+      </c>
+      <c r="CW2">
+        <f>74-21.7</f>
+        <v>52.3</v>
+      </c>
+      <c r="CX2">
+        <v>3305</v>
+      </c>
     </row>
-    <row r="3" spans="1:72">
+    <row r="3" spans="1:102">
       <c r="A3">
         <v>40</v>
       </c>
@@ -1074,8 +1264,8 @@
         <v>40</v>
       </c>
       <c r="BJ3">
-        <f>79.7-22.9</f>
-        <v>56.800000000000004</v>
+        <f>78.9-22.5</f>
+        <v>56.400000000000006</v>
       </c>
       <c r="BK3">
         <v>1812</v>
@@ -1084,8 +1274,8 @@
         <v>40</v>
       </c>
       <c r="BM3">
-        <f>79.9-23.1</f>
-        <v>56.800000000000004</v>
+        <f>79.1-22.5</f>
+        <v>56.599999999999994</v>
       </c>
       <c r="BN3">
         <v>2030</v>
@@ -1110,8 +1300,108 @@
       <c r="BT3">
         <v>1820</v>
       </c>
+      <c r="BU3">
+        <v>50.2</v>
+      </c>
+      <c r="BV3">
+        <f>77.4-23</f>
+        <v>54.400000000000006</v>
+      </c>
+      <c r="BW3">
+        <v>2536</v>
+      </c>
+      <c r="BX3">
+        <v>50.2</v>
+      </c>
+      <c r="BY3">
+        <f>77.2-23.2</f>
+        <v>54</v>
+      </c>
+      <c r="BZ3">
+        <v>2594</v>
+      </c>
+      <c r="CA3">
+        <v>40.1</v>
+      </c>
+      <c r="CB3">
+        <f>78.2-22.2</f>
+        <v>56</v>
+      </c>
+      <c r="CC3">
+        <v>2010</v>
+      </c>
+      <c r="CD3">
+        <v>40.1</v>
+      </c>
+      <c r="CE3">
+        <f>79.7-22.4</f>
+        <v>57.300000000000004</v>
+      </c>
+      <c r="CF3">
+        <v>1586</v>
+      </c>
+      <c r="CG3">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="CH3">
+        <f>79.4-22.5</f>
+        <v>56.900000000000006</v>
+      </c>
+      <c r="CI3">
+        <v>1957</v>
+      </c>
+      <c r="CJ3">
+        <v>50.1</v>
+      </c>
+      <c r="CK3">
+        <f>77.3-22.5</f>
+        <v>54.8</v>
+      </c>
+      <c r="CL3">
+        <v>2220</v>
+      </c>
+      <c r="CM3">
+        <v>40</v>
+      </c>
+      <c r="CN3">
+        <f>80.3-22.5</f>
+        <v>57.8</v>
+      </c>
+      <c r="CO3">
+        <v>1719</v>
+      </c>
+      <c r="CP3">
+        <v>40</v>
+      </c>
+      <c r="CQ3">
+        <f>79.9-22.5</f>
+        <v>57.400000000000006</v>
+      </c>
+      <c r="CR3">
+        <v>1955</v>
+      </c>
+      <c r="CS3">
+        <v>40</v>
+      </c>
+      <c r="CT3">
+        <f>79.8-22.5</f>
+        <v>57.3</v>
+      </c>
+      <c r="CU3">
+        <v>2055</v>
+      </c>
+      <c r="CV3">
+        <v>50.2</v>
+      </c>
+      <c r="CW3">
+        <f>76.2-21.8</f>
+        <v>54.400000000000006</v>
+      </c>
+      <c r="CX3">
+        <v>2234</v>
+      </c>
     </row>
-    <row r="4" spans="1:72">
+    <row r="4" spans="1:102">
       <c r="M4">
         <v>40</v>
       </c>
@@ -1162,13 +1452,63 @@
       <c r="AY4">
         <v>1730</v>
       </c>
+      <c r="BU4">
+        <v>40.1</v>
+      </c>
+      <c r="BV4">
+        <f>80.4-23.1</f>
+        <v>57.300000000000004</v>
+      </c>
+      <c r="BW4">
+        <v>1720</v>
+      </c>
+      <c r="BX4">
+        <v>40</v>
+      </c>
+      <c r="BY4">
+        <f>80-23.1</f>
+        <v>56.9</v>
+      </c>
+      <c r="BZ4">
+        <v>1731</v>
+      </c>
+      <c r="CJ4">
+        <v>40</v>
+      </c>
+      <c r="CK4">
+        <f>80.4-22.5</f>
+        <v>57.900000000000006</v>
+      </c>
+      <c r="CL4">
+        <v>1488</v>
+      </c>
+      <c r="CV4">
+        <v>39.9</v>
+      </c>
+      <c r="CW4">
+        <f>78.3-21.5</f>
+        <v>56.8</v>
+      </c>
+      <c r="CX4">
+        <v>1493</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="34">
+    <mergeCell ref="CM1:CO1"/>
+    <mergeCell ref="CP1:CR1"/>
+    <mergeCell ref="CS1:CU1"/>
+    <mergeCell ref="CV1:CX1"/>
+    <mergeCell ref="BX1:BZ1"/>
+    <mergeCell ref="CA1:CC1"/>
+    <mergeCell ref="CD1:CF1"/>
+    <mergeCell ref="CG1:CI1"/>
+    <mergeCell ref="CJ1:CL1"/>
     <mergeCell ref="BI1:BK1"/>
     <mergeCell ref="BL1:BN1"/>
     <mergeCell ref="BO1:BQ1"/>
     <mergeCell ref="BR1:BT1"/>
+    <mergeCell ref="BU1:BW1"/>
     <mergeCell ref="AT1:AV1"/>
     <mergeCell ref="AW1:AY1"/>
     <mergeCell ref="AZ1:BB1"/>
@@ -1192,5 +1532,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/xlsx/AK700换扇重制版.xlsx
+++ b/xlsx/AK700换扇重制版.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skycheng/Desktop/FanWebsite/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407463CD-5DAB-6644-830A-DD6C5EE7A2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA9512B-DAB1-BB44-AEC8-50747D2D6681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="18040" xr2:uid="{0674E527-E1AB-E348-9FF3-CA6262F7D631}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>莫比乌斯</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,6 +170,10 @@
   </si>
   <si>
     <t>玄冥静V2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲青风</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -537,15 +541,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25302E3-D780-C043-8AFB-452B651797D6}">
-  <dimension ref="A1:CX4"/>
+  <dimension ref="A1:DG4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CM1" workbookViewId="0">
-      <selection activeCell="CY8" sqref="CY8"/>
+    <sheetView tabSelected="1" topLeftCell="CT1" workbookViewId="0">
+      <selection activeCell="DB1" sqref="DB1:DH8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:102">
+    <row r="1" spans="1:111">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -716,8 +720,19 @@
       </c>
       <c r="CW1" s="1"/>
       <c r="CX1" s="1"/>
+      <c r="CY1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="CZ1" s="1"/>
+      <c r="DA1" s="1"/>
+      <c r="DB1" s="1"/>
+      <c r="DC1" s="1"/>
+      <c r="DD1" s="1"/>
+      <c r="DE1" s="1"/>
+      <c r="DF1" s="1"/>
+      <c r="DG1" s="1"/>
     </row>
-    <row r="2" spans="1:102">
+    <row r="2" spans="1:111">
       <c r="A2">
         <v>44.3</v>
       </c>
@@ -832,8 +847,7 @@
         <v>57.2</v>
       </c>
       <c r="AI2">
-        <f>76-23.6</f>
-        <v>52.4</v>
+        <v>52.5</v>
       </c>
       <c r="AJ2">
         <v>4040</v>
@@ -1058,8 +1072,18 @@
       <c r="CX2">
         <v>3305</v>
       </c>
+      <c r="CY2">
+        <v>59</v>
+      </c>
+      <c r="CZ2">
+        <f>74.7-22.1</f>
+        <v>52.6</v>
+      </c>
+      <c r="DA2">
+        <v>4301</v>
+      </c>
     </row>
-    <row r="3" spans="1:102">
+    <row r="3" spans="1:111">
       <c r="A3">
         <v>40</v>
       </c>
@@ -1174,8 +1198,7 @@
         <v>50</v>
       </c>
       <c r="AI3">
-        <f>77.1-23.6</f>
-        <v>53.499999999999993</v>
+        <v>54</v>
       </c>
       <c r="AJ3">
         <v>3037</v>
@@ -1400,8 +1423,18 @@
       <c r="CX3">
         <v>2234</v>
       </c>
+      <c r="CY3">
+        <v>49.8</v>
+      </c>
+      <c r="CZ3">
+        <f>76.4-22.1</f>
+        <v>54.300000000000004</v>
+      </c>
+      <c r="DA3">
+        <v>2992</v>
+      </c>
     </row>
-    <row r="4" spans="1:102">
+    <row r="4" spans="1:111">
       <c r="M4">
         <v>40</v>
       </c>
@@ -1416,8 +1449,7 @@
         <v>40</v>
       </c>
       <c r="AI4">
-        <f>79.9-23.5</f>
-        <v>56.400000000000006</v>
+        <v>56.5</v>
       </c>
       <c r="AJ4">
         <v>2040</v>
@@ -1492,9 +1524,47 @@
       <c r="CX4">
         <v>1493</v>
       </c>
+      <c r="CY4">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="CZ4">
+        <f>78.8-22</f>
+        <v>56.8</v>
+      </c>
+      <c r="DA4">
+        <v>2023</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="37">
+    <mergeCell ref="CY1:DA1"/>
+    <mergeCell ref="DB1:DD1"/>
+    <mergeCell ref="DE1:DG1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AG1"/>
+    <mergeCell ref="AH1:AJ1"/>
+    <mergeCell ref="AK1:AM1"/>
+    <mergeCell ref="AN1:AP1"/>
+    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="AT1:AV1"/>
+    <mergeCell ref="AW1:AY1"/>
+    <mergeCell ref="AZ1:BB1"/>
+    <mergeCell ref="BC1:BE1"/>
+    <mergeCell ref="BF1:BH1"/>
+    <mergeCell ref="BI1:BK1"/>
+    <mergeCell ref="BL1:BN1"/>
+    <mergeCell ref="BO1:BQ1"/>
+    <mergeCell ref="BR1:BT1"/>
+    <mergeCell ref="BU1:BW1"/>
     <mergeCell ref="CM1:CO1"/>
     <mergeCell ref="CP1:CR1"/>
     <mergeCell ref="CS1:CU1"/>
@@ -1504,31 +1574,6 @@
     <mergeCell ref="CD1:CF1"/>
     <mergeCell ref="CG1:CI1"/>
     <mergeCell ref="CJ1:CL1"/>
-    <mergeCell ref="BI1:BK1"/>
-    <mergeCell ref="BL1:BN1"/>
-    <mergeCell ref="BO1:BQ1"/>
-    <mergeCell ref="BR1:BT1"/>
-    <mergeCell ref="BU1:BW1"/>
-    <mergeCell ref="AT1:AV1"/>
-    <mergeCell ref="AW1:AY1"/>
-    <mergeCell ref="AZ1:BB1"/>
-    <mergeCell ref="BC1:BE1"/>
-    <mergeCell ref="BF1:BH1"/>
-    <mergeCell ref="AE1:AG1"/>
-    <mergeCell ref="AH1:AJ1"/>
-    <mergeCell ref="AK1:AM1"/>
-    <mergeCell ref="AN1:AP1"/>
-    <mergeCell ref="AQ1:AS1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xlsx/AK700换扇重制版.xlsx
+++ b/xlsx/AK700换扇重制版.xlsx
@@ -1,34 +1,171 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skycheng/Desktop/FanWebsite/xlsx/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E24F76-D550-8140-8231-4B84167771D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="18040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+  <si>
+    <t>FK12 V2</t>
+  </si>
+  <si>
+    <t>FD12 V2</t>
+  </si>
+  <si>
+    <t>鸿华12025</t>
+  </si>
+  <si>
+    <t>A12x25G2</t>
+  </si>
+  <si>
+    <t>钢影12Pro</t>
+  </si>
+  <si>
+    <t>AK12B</t>
+  </si>
+  <si>
+    <t>莫比乌斯</t>
+  </si>
+  <si>
+    <t>A120</t>
+  </si>
+  <si>
+    <t>GD3000</t>
+  </si>
+  <si>
+    <t>P2Pro</t>
+  </si>
+  <si>
+    <t>PF120</t>
+  </si>
+  <si>
+    <t>P28</t>
+  </si>
+  <si>
+    <t>9RA12025</t>
+  </si>
+  <si>
+    <t>P12Pro</t>
+  </si>
+  <si>
+    <t>P12E</t>
+  </si>
+  <si>
+    <t>T30</t>
+  </si>
+  <si>
+    <t>SC12</t>
+  </si>
+  <si>
+    <t>MaxFlow</t>
+  </si>
+  <si>
+    <t>风尊T30</t>
+  </si>
+  <si>
+    <t>DN120Pro</t>
+  </si>
+  <si>
+    <t>曲青风</t>
+  </si>
+  <si>
+    <t>MACH120</t>
+  </si>
+  <si>
+    <t>HF3</t>
+  </si>
+  <si>
+    <t>F3 S120</t>
+  </si>
+  <si>
+    <t>LP12E</t>
+  </si>
+  <si>
+    <t>广镰GT3000</t>
+  </si>
+  <si>
+    <t>玄冥静V2</t>
+  </si>
+  <si>
+    <t>FT12</t>
+  </si>
+  <si>
+    <t>AT120K</t>
+  </si>
+  <si>
+    <t>H12PE</t>
+  </si>
+  <si>
+    <t>F7 X120</t>
+  </si>
+  <si>
+    <t>F9 R120</t>
+  </si>
+  <si>
+    <t>GT3000</t>
+  </si>
+  <si>
+    <t>雅浚12030</t>
+  </si>
+  <si>
+    <t>振华巨风</t>
+  </si>
+  <si>
+    <t>A12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,80 +184,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,923 +486,873 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:DA4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:DD4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="CK1" workbookViewId="0">
+      <selection activeCell="AX14" sqref="AX14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>FK12 V2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>FD12 V2</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>鸿华12025</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>A12x25G2</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>钢影12Pro</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>AK12B</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>莫比乌斯</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>A120</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>GD3000</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>P2Pro</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>PF120</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>P28</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>9RA12025</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>P12Pro</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>P12E</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>T30</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>SC12</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>MaxFlow</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>风尊T30</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>DN120Pro</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>曲青风</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>MACH120</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>HF3</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>F3 S120</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>LP12E</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>广镰GT3000</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>玄冥静V2</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>FT12</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>AT120K</t>
-        </is>
-      </c>
-      <c r="CJ1" t="inlineStr">
-        <is>
-          <t>H12PE</t>
-        </is>
-      </c>
-      <c r="CM1" t="inlineStr">
-        <is>
-          <t>F7 X120</t>
-        </is>
-      </c>
-      <c r="CP1" t="inlineStr">
-        <is>
-          <t>F9 R120</t>
-        </is>
-      </c>
-      <c r="CS1" t="inlineStr">
-        <is>
-          <t>GT3000</t>
-        </is>
-      </c>
-      <c r="CV1" t="inlineStr">
-        <is>
-          <t>雅浚12030</t>
-        </is>
-      </c>
-      <c r="CY1" t="inlineStr">
-        <is>
-          <t>振华巨风</t>
-        </is>
+    <row r="1" spans="1:108">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>17</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>18</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>20</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>23</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>25</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>27</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>28</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>29</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>30</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>31</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>32</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>33</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>34</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:108">
+      <c r="A2">
         <v>46.5</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>54</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>2708</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>45.6</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>54.2</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>2500</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>45.3</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>54.4</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>2290</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>41</v>
       </c>
-      <c r="K2" t="n">
-        <v>55.59999999999999</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="K2">
+        <v>55.599999999999987</v>
+      </c>
+      <c r="L2">
         <v>1819</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>43.3</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>54.9</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2">
         <v>2020</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2">
         <v>44</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2">
         <v>54.8</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2">
         <v>2378</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2">
         <v>44.3</v>
       </c>
-      <c r="T2" t="n">
-        <v>54.90000000000001</v>
-      </c>
-      <c r="U2" t="n">
+      <c r="T2">
+        <v>54.900000000000013</v>
+      </c>
+      <c r="U2">
         <v>2370</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V2">
         <v>47.2</v>
       </c>
-      <c r="W2" t="n">
-        <v>54.10000000000001</v>
-      </c>
-      <c r="X2" t="n">
+      <c r="W2">
+        <v>54.100000000000009</v>
+      </c>
+      <c r="X2">
         <v>2553</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y2">
         <v>51.5</v>
       </c>
-      <c r="Z2" t="n">
-        <v>53.10000000000001</v>
-      </c>
-      <c r="AA2" t="n">
+      <c r="Z2">
+        <v>53.100000000000009</v>
+      </c>
+      <c r="AA2">
         <v>2850</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2">
         <v>49.1</v>
       </c>
-      <c r="AC2" t="n">
-        <v>53.90000000000001</v>
-      </c>
-      <c r="AD2" t="n">
+      <c r="AC2">
+        <v>53.900000000000013</v>
+      </c>
+      <c r="AD2">
         <v>2608</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2">
         <v>55</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2">
         <v>52.8</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2">
         <v>3145</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2">
         <v>49</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI2">
         <v>54.2</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ2">
         <v>2589</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK2">
         <v>57.2</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL2">
         <v>52.5</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AM2">
         <v>4040</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AN2">
         <v>49.8</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO2">
         <v>53.9</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AP2">
         <v>3042</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AQ2">
         <v>52.4</v>
       </c>
-      <c r="AR2" t="n">
-        <v>53.50000000000001</v>
-      </c>
-      <c r="AS2" t="n">
+      <c r="AR2">
+        <v>53.500000000000007</v>
+      </c>
+      <c r="AS2">
         <v>2800</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT2">
         <v>54.2</v>
       </c>
-      <c r="AU2" t="n">
-        <v>52.90000000000001</v>
-      </c>
-      <c r="AV2" t="n">
+      <c r="AU2">
+        <v>52.900000000000013</v>
+      </c>
+      <c r="AV2">
         <v>3030</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AW2">
         <v>46.3</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="AX2">
         <v>54.8</v>
       </c>
-      <c r="AY2" t="n">
+      <c r="AY2">
         <v>2000</v>
       </c>
-      <c r="AZ2" t="n">
+      <c r="AZ2">
         <v>60.9</v>
       </c>
-      <c r="BA2" t="n">
+      <c r="BA2">
         <v>52.3</v>
       </c>
-      <c r="BB2" t="n">
+      <c r="BB2">
         <v>3305</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BC2">
         <v>49.6</v>
       </c>
-      <c r="BD2" t="n">
+      <c r="BD2">
         <v>54.2</v>
       </c>
-      <c r="BE2" t="n">
+      <c r="BE2">
         <v>2516</v>
       </c>
-      <c r="BF2" t="n">
+      <c r="BF2">
         <v>43</v>
       </c>
-      <c r="BG2" t="n">
+      <c r="BG2">
         <v>55.8</v>
       </c>
-      <c r="BH2" t="n">
+      <c r="BH2">
         <v>2243</v>
       </c>
-      <c r="BI2" t="n">
+      <c r="BI2">
         <v>59</v>
       </c>
-      <c r="BJ2" t="n">
+      <c r="BJ2">
         <v>52.6</v>
       </c>
-      <c r="BK2" t="n">
+      <c r="BK2">
         <v>4301</v>
       </c>
-      <c r="BL2" t="n">
+      <c r="BL2">
         <v>54.5</v>
       </c>
-      <c r="BM2" t="n">
+      <c r="BM2">
         <v>53</v>
       </c>
-      <c r="BN2" t="n">
+      <c r="BN2">
         <v>3053</v>
       </c>
-      <c r="BO2" t="n">
+      <c r="BO2">
         <v>61.6</v>
       </c>
-      <c r="BP2" t="n">
+      <c r="BP2">
         <v>51.9</v>
       </c>
-      <c r="BQ2" t="n">
+      <c r="BQ2">
         <v>4008</v>
       </c>
-      <c r="BR2" t="n">
+      <c r="BR2">
         <v>49.7</v>
       </c>
-      <c r="BS2" t="n">
-        <v>54.09999999999999</v>
-      </c>
-      <c r="BT2" t="n">
+      <c r="BS2">
+        <v>54.099999999999987</v>
+      </c>
+      <c r="BT2">
         <v>2696</v>
       </c>
-      <c r="BU2" t="n">
+      <c r="BU2">
         <v>55.2</v>
       </c>
-      <c r="BV2" t="n">
+      <c r="BV2">
         <v>53.1</v>
       </c>
-      <c r="BW2" t="n">
+      <c r="BW2">
         <v>3015</v>
       </c>
-      <c r="BX2" t="n">
+      <c r="BX2">
         <v>51.7</v>
       </c>
-      <c r="BY2" t="n">
-        <v>53.90000000000001</v>
-      </c>
-      <c r="BZ2" t="n">
+      <c r="BY2">
+        <v>53.900000000000013</v>
+      </c>
+      <c r="BZ2">
         <v>3011</v>
       </c>
-      <c r="CA2" t="n">
+      <c r="CA2">
         <v>50</v>
       </c>
-      <c r="CB2" t="n">
+      <c r="CB2">
         <v>54.2</v>
       </c>
-      <c r="CC2" t="n">
+      <c r="CC2">
         <v>3120</v>
       </c>
-      <c r="CD2" t="n">
+      <c r="CD2">
         <v>47.4</v>
       </c>
-      <c r="CE2" t="n">
+      <c r="CE2">
         <v>54.8</v>
       </c>
-      <c r="CF2" t="n">
+      <c r="CF2">
         <v>2156</v>
       </c>
-      <c r="CG2" t="n">
+      <c r="CG2">
         <v>52.3</v>
       </c>
-      <c r="CH2" t="n">
+      <c r="CH2">
         <v>53.9</v>
       </c>
-      <c r="CI2" t="n">
+      <c r="CI2">
         <v>3045</v>
       </c>
-      <c r="CJ2" t="n">
+      <c r="CJ2">
         <v>57</v>
       </c>
-      <c r="CK2" t="n">
-        <v>53.00000000000001</v>
-      </c>
-      <c r="CL2" t="n">
+      <c r="CK2">
+        <v>53.000000000000007</v>
+      </c>
+      <c r="CL2">
         <v>3300</v>
       </c>
-      <c r="CM2" t="n">
+      <c r="CM2">
         <v>50.9</v>
       </c>
-      <c r="CN2" t="n">
-        <v>53.90000000000001</v>
-      </c>
-      <c r="CO2" t="n">
+      <c r="CN2">
+        <v>53.900000000000013</v>
+      </c>
+      <c r="CO2">
         <v>3030</v>
       </c>
-      <c r="CP2" t="n">
+      <c r="CP2">
         <v>58</v>
       </c>
-      <c r="CQ2" t="n">
+      <c r="CQ2">
         <v>52.7</v>
       </c>
-      <c r="CR2" t="n">
+      <c r="CR2">
         <v>3000</v>
       </c>
-      <c r="CS2" t="n">
+      <c r="CS2">
         <v>51.2</v>
       </c>
-      <c r="CT2" t="n">
+      <c r="CT2">
         <v>53.8</v>
       </c>
-      <c r="CU2" t="n">
+      <c r="CU2">
         <v>3002</v>
       </c>
-      <c r="CV2" t="n">
+      <c r="CV2">
         <v>53.2</v>
       </c>
-      <c r="CW2" t="n">
+      <c r="CW2">
         <v>53.8</v>
       </c>
-      <c r="CX2" t="n">
+      <c r="CX2">
         <v>2986</v>
       </c>
-      <c r="CY2" t="n">
+      <c r="CY2">
         <v>59</v>
       </c>
-      <c r="CZ2" t="n">
-        <v>52.59999999999999</v>
-      </c>
-      <c r="DA2" t="n">
+      <c r="CZ2">
+        <v>52.599999999999987</v>
+      </c>
+      <c r="DA2">
         <v>3096</v>
       </c>
+      <c r="DB2">
+        <v>41.3</v>
+      </c>
+      <c r="DC2">
+        <f>78.4-21.8</f>
+        <v>56.600000000000009</v>
+      </c>
+      <c r="DD2">
+        <v>2090</v>
+      </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>40</v>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:108">
+      <c r="A3">
+        <v>40</v>
+      </c>
+      <c r="B3">
         <v>55.7</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>2070</v>
       </c>
-      <c r="D3" t="n">
-        <v>40</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="D3">
+        <v>40</v>
+      </c>
+      <c r="E3">
         <v>55.8</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>1970</v>
       </c>
-      <c r="G3" t="n">
-        <v>40</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="G3">
+        <v>40</v>
+      </c>
+      <c r="H3">
         <v>55.8</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>1840</v>
       </c>
-      <c r="J3" t="n">
-        <v>40</v>
-      </c>
-      <c r="K3" t="n">
-        <v>55.89999999999999</v>
-      </c>
-      <c r="L3" t="n">
+      <c r="J3">
+        <v>40</v>
+      </c>
+      <c r="K3">
+        <v>55.899999999999991</v>
+      </c>
+      <c r="L3">
         <v>1732</v>
       </c>
-      <c r="M3" t="n">
-        <v>40</v>
-      </c>
-      <c r="N3" t="n">
-        <v>56.00000000000001</v>
-      </c>
-      <c r="O3" t="n">
+      <c r="M3">
+        <v>40</v>
+      </c>
+      <c r="N3">
+        <v>56.000000000000007</v>
+      </c>
+      <c r="O3">
         <v>1736</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3">
         <v>40.1</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3">
         <v>56</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3">
         <v>2010</v>
       </c>
-      <c r="S3" t="n">
-        <v>40</v>
-      </c>
-      <c r="T3" t="n">
+      <c r="S3">
+        <v>40</v>
+      </c>
+      <c r="T3">
         <v>56.1</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3">
         <v>1967</v>
       </c>
-      <c r="V3" t="n">
-        <v>40</v>
-      </c>
-      <c r="W3" t="n">
-        <v>56.10000000000001</v>
-      </c>
-      <c r="X3" t="n">
+      <c r="V3">
+        <v>40</v>
+      </c>
+      <c r="W3">
+        <v>56.100000000000009</v>
+      </c>
+      <c r="X3">
         <v>1840</v>
       </c>
-      <c r="Y3" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z3" t="n">
+      <c r="Y3">
+        <v>40</v>
+      </c>
+      <c r="Z3">
         <v>56.2</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3">
         <v>1780</v>
       </c>
-      <c r="AB3" t="n">
-        <v>40</v>
-      </c>
-      <c r="AC3" t="n">
+      <c r="AB3">
+        <v>40</v>
+      </c>
+      <c r="AC3">
         <v>56.2</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD3">
         <v>1837</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE3">
         <v>50.1</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF3">
         <v>53.8</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3">
         <v>2611</v>
       </c>
-      <c r="AH3" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>56.40000000000001</v>
-      </c>
-      <c r="AJ3" t="n">
+      <c r="AH3">
+        <v>40</v>
+      </c>
+      <c r="AI3">
+        <v>56.400000000000013</v>
+      </c>
+      <c r="AJ3">
         <v>1812</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AK3">
         <v>50</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AL3">
         <v>54</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AM3">
         <v>3037</v>
       </c>
-      <c r="AN3" t="n">
-        <v>40</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>56.59999999999999</v>
-      </c>
-      <c r="AP3" t="n">
+      <c r="AN3">
+        <v>40</v>
+      </c>
+      <c r="AO3">
+        <v>56.599999999999987</v>
+      </c>
+      <c r="AP3">
         <v>2030</v>
       </c>
-      <c r="AQ3" t="n">
-        <v>40.3</v>
-      </c>
-      <c r="AR3" t="n">
+      <c r="AQ3">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="AR3">
         <v>56.7</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AS3">
         <v>1729</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AT3">
         <v>50</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AU3">
         <v>53.7</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AV3">
         <v>2583</v>
       </c>
-      <c r="AW3" t="n">
-        <v>40.2</v>
-      </c>
-      <c r="AX3" t="n">
+      <c r="AW3">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="AX3">
         <v>56.8</v>
       </c>
-      <c r="AY3" t="n">
+      <c r="AY3">
         <v>1551</v>
       </c>
-      <c r="AZ3" t="n">
+      <c r="AZ3">
         <v>50.2</v>
       </c>
-      <c r="BA3" t="n">
-        <v>54.40000000000001</v>
-      </c>
-      <c r="BB3" t="n">
+      <c r="BA3">
+        <v>54.400000000000013</v>
+      </c>
+      <c r="BB3">
         <v>2234</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BC3">
         <v>40.1</v>
       </c>
-      <c r="BD3" t="n">
+      <c r="BD3">
         <v>56.8</v>
       </c>
-      <c r="BE3" t="n">
+      <c r="BE3">
         <v>1721</v>
       </c>
-      <c r="BF3" t="n">
-        <v>40.2</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>56.90000000000001</v>
-      </c>
-      <c r="BH3" t="n">
+      <c r="BF3">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="BG3">
+        <v>56.900000000000013</v>
+      </c>
+      <c r="BH3">
         <v>1957</v>
       </c>
-      <c r="BI3" t="n">
+      <c r="BI3">
         <v>49.8</v>
       </c>
-      <c r="BJ3" t="n">
+      <c r="BJ3">
         <v>54.3</v>
       </c>
-      <c r="BK3" t="n">
+      <c r="BK3">
         <v>2992</v>
       </c>
-      <c r="BL3" t="n">
+      <c r="BL3">
         <v>49.9</v>
       </c>
-      <c r="BM3" t="n">
+      <c r="BM3">
         <v>54.1</v>
       </c>
-      <c r="BN3" t="n">
+      <c r="BN3">
         <v>2542</v>
       </c>
-      <c r="BO3" t="n">
+      <c r="BO3">
         <v>50.2</v>
       </c>
-      <c r="BP3" t="n">
+      <c r="BP3">
         <v>54</v>
       </c>
-      <c r="BQ3" t="n">
+      <c r="BQ3">
         <v>2594</v>
       </c>
-      <c r="BR3" t="n">
-        <v>40</v>
-      </c>
-      <c r="BS3" t="n">
-        <v>57.10000000000001</v>
-      </c>
-      <c r="BT3" t="n">
+      <c r="BR3">
+        <v>40</v>
+      </c>
+      <c r="BS3">
+        <v>57.100000000000009</v>
+      </c>
+      <c r="BT3">
         <v>1820</v>
       </c>
-      <c r="BU3" t="n">
-        <v>40.3</v>
-      </c>
-      <c r="BV3" t="n">
+      <c r="BU3">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="BV3">
         <v>57.1</v>
       </c>
-      <c r="BW3" t="n">
+      <c r="BW3">
         <v>1697</v>
       </c>
-      <c r="BX3" t="n">
-        <v>40</v>
-      </c>
-      <c r="BY3" t="n">
+      <c r="BX3">
+        <v>40</v>
+      </c>
+      <c r="BY3">
         <v>57.2</v>
       </c>
-      <c r="BZ3" t="n">
+      <c r="BZ3">
         <v>1810</v>
       </c>
-      <c r="CA3" t="n">
-        <v>40</v>
-      </c>
-      <c r="CB3" t="n">
+      <c r="CA3">
+        <v>40</v>
+      </c>
+      <c r="CB3">
         <v>57.3</v>
       </c>
-      <c r="CC3" t="n">
+      <c r="CC3">
         <v>2055</v>
       </c>
-      <c r="CD3" t="n">
+      <c r="CD3">
         <v>40.1</v>
       </c>
-      <c r="CE3" t="n">
+      <c r="CE3">
         <v>57.3</v>
       </c>
-      <c r="CF3" t="n">
+      <c r="CF3">
         <v>1586</v>
       </c>
-      <c r="CG3" t="n">
-        <v>40</v>
-      </c>
-      <c r="CH3" t="n">
+      <c r="CG3">
+        <v>40</v>
+      </c>
+      <c r="CH3">
         <v>57.3</v>
       </c>
-      <c r="CI3" t="n">
+      <c r="CI3">
         <v>1810</v>
       </c>
-      <c r="CJ3" t="n">
+      <c r="CJ3">
         <v>50.2</v>
       </c>
-      <c r="CK3" t="n">
-        <v>54.40000000000001</v>
-      </c>
-      <c r="CL3" t="n">
+      <c r="CK3">
+        <v>54.400000000000013</v>
+      </c>
+      <c r="CL3">
         <v>2536</v>
       </c>
-      <c r="CM3" t="n">
-        <v>40</v>
-      </c>
-      <c r="CN3" t="n">
-        <v>57.40000000000001</v>
-      </c>
-      <c r="CO3" t="n">
+      <c r="CM3">
+        <v>40</v>
+      </c>
+      <c r="CN3">
+        <v>57.400000000000013</v>
+      </c>
+      <c r="CO3">
         <v>1955</v>
       </c>
-      <c r="CP3" t="n">
+      <c r="CP3">
         <v>50</v>
       </c>
-      <c r="CQ3" t="n">
+      <c r="CQ3">
         <v>54.3</v>
       </c>
-      <c r="CR3" t="n">
+      <c r="CR3">
         <v>2245</v>
       </c>
-      <c r="CS3" t="n">
+      <c r="CS3">
         <v>40.9</v>
       </c>
-      <c r="CT3" t="n">
+      <c r="CT3">
         <v>57.5</v>
       </c>
-      <c r="CU3" t="n">
+      <c r="CU3">
         <v>1775</v>
       </c>
-      <c r="CV3" t="n">
-        <v>40</v>
-      </c>
-      <c r="CW3" t="n">
+      <c r="CV3">
+        <v>40</v>
+      </c>
+      <c r="CW3">
         <v>57.8</v>
       </c>
-      <c r="CX3" t="n">
+      <c r="CX3">
         <v>1719</v>
       </c>
-      <c r="CY3" t="n">
+      <c r="CY3">
         <v>50.1</v>
       </c>
-      <c r="CZ3" t="n">
+      <c r="CZ3">
         <v>54.8</v>
       </c>
-      <c r="DA3" t="n">
+      <c r="DA3">
         <v>2220</v>
       </c>
+      <c r="DB3">
+        <v>40</v>
+      </c>
+      <c r="DC3">
+        <f>78.3-21.3</f>
+        <v>57</v>
+      </c>
+      <c r="DD3">
+        <v>1941</v>
+      </c>
     </row>
-    <row r="4">
-      <c r="AE4" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF4" t="n">
+    <row r="4" spans="1:108">
+      <c r="AE4">
+        <v>40</v>
+      </c>
+      <c r="AF4">
         <v>56.4</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AG4">
         <v>1762</v>
       </c>
-      <c r="AK4" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL4" t="n">
+      <c r="AK4">
+        <v>40</v>
+      </c>
+      <c r="AL4">
         <v>56.5</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AM4">
         <v>2040</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AT4">
         <v>40.1</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AU4">
         <v>56.8</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AV4">
         <v>1711</v>
       </c>
-      <c r="AZ4" t="n">
+      <c r="AZ4">
         <v>39.9</v>
       </c>
-      <c r="BA4" t="n">
+      <c r="BA4">
         <v>56.8</v>
       </c>
-      <c r="BB4" t="n">
+      <c r="BB4">
         <v>1493</v>
       </c>
-      <c r="BI4" t="n">
-        <v>40.2</v>
-      </c>
-      <c r="BJ4" t="n">
+      <c r="BI4">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="BJ4">
         <v>56.8</v>
       </c>
-      <c r="BK4" t="n">
+      <c r="BK4">
         <v>2023</v>
       </c>
-      <c r="BL4" t="n">
-        <v>40.3</v>
-      </c>
-      <c r="BM4" t="n">
+      <c r="BL4">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="BM4">
         <v>56.8</v>
       </c>
-      <c r="BN4" t="n">
+      <c r="BN4">
         <v>1730</v>
       </c>
-      <c r="BO4" t="n">
-        <v>40</v>
-      </c>
-      <c r="BP4" t="n">
+      <c r="BO4">
+        <v>40</v>
+      </c>
+      <c r="BP4">
         <v>56.9</v>
       </c>
-      <c r="BQ4" t="n">
+      <c r="BQ4">
         <v>1731</v>
       </c>
-      <c r="CJ4" t="n">
+      <c r="CJ4">
         <v>40.1</v>
       </c>
-      <c r="CK4" t="n">
+      <c r="CK4">
         <v>57.3</v>
       </c>
-      <c r="CL4" t="n">
+      <c r="CL4">
         <v>1720</v>
       </c>
-      <c r="CP4" t="n">
+      <c r="CP4">
         <v>39.9</v>
       </c>
-      <c r="CQ4" t="n">
+      <c r="CQ4">
         <v>57.5</v>
       </c>
-      <c r="CR4" t="n">
+      <c r="CR4">
         <v>1459</v>
       </c>
-      <c r="CY4" t="n">
-        <v>40</v>
-      </c>
-      <c r="CZ4" t="n">
-        <v>57.90000000000001</v>
-      </c>
-      <c r="DA4" t="n">
+      <c r="CY4">
+        <v>40</v>
+      </c>
+      <c r="CZ4">
+        <v>57.900000000000013</v>
+      </c>
+      <c r="DA4">
         <v>1488</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>